--- a/ADMIN_LOGS/sumit_log.xlsx
+++ b/ADMIN_LOGS/sumit_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,6 +573,81 @@
         <v>10000000</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-10-21 20:40:04</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>sumit</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12344</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-10-21 20:40:12</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>sumit</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12344</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-10-21 20:40:28</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>sumit</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12344</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ADMIN_LOGS/sumit_log.xlsx
+++ b/ADMIN_LOGS/sumit_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -648,6 +648,56 @@
         <v>90</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-10-21 20:53:11</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>sumit</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12344</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-10-21 21:25:42</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>sumit</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12344</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>10000000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ADMIN_LOGS/sumit_log.xlsx
+++ b/ADMIN_LOGS/sumit_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -698,6 +698,31 @@
         <v>10000000</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-10-22 11:54:25</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>sumit</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ADMIN_LOGS/sumit_log.xlsx
+++ b/ADMIN_LOGS/sumit_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,6 +723,256 @@
         <v>2500</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-10-22 19:59:45</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Sumit</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12344</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-10-22 19:59:55</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Sumit</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12344</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-10-22 20:00:09</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sumit</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12344</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>200000000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-10-22 20:00:21</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Sumit</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Withdraw</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-10-22 20:00:29</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Sumit</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Withdraw</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12344</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-10-22 20:00:37</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Sumit</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Withdraw</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12344</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-10-22 20:00:47</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Sumit</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Withdraw</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12344</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>19000000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-10-22 20:01:13</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Sumit</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Withdraw</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12344</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>179010425</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-10-22 20:01:27</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Sumit</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12344</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-10-22 23:16:27</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Sumit</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Withdraw</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12344</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ADMIN_LOGS/sumit_log.xlsx
+++ b/ADMIN_LOGS/sumit_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -973,6 +973,106 @@
         <v>999</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-10-23 22:15:15</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Sumit</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-10-23 22:15:24</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Sumit</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Withdraw</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-10-23 22:17:50</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Sumit</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Withdraw</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-10-23 22:18:24</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Sumit</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Withdraw</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>8906399</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
